--- a/myAnalyses/FireArms/gbd.ICD.Map.FIREARM.xlsx
+++ b/myAnalyses/FireArms/gbd.ICD.Map.FIREARM.xlsx
@@ -1,21 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myAnalyses\FireArms\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5EEEB4-607C-4029-9709-E49D709D3E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="10935"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="metaData" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="main" sheetId="3" r:id="rId1"/>
+    <sheet name="old" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$X$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">old!$A$1:$X$7</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,12 +39,46 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dauphine, David (CDPH-CHSI-PHPRB)</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{F0764D3D-32E3-4DFA-A4C0-90B601B3CCD9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dauphine, David (CDPH-CHSI-PHPRB):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Changes were mainly based on our IHME-WHO pivot table for 3.8M deaths from 2000-2015. Now I realize would be more comprehensive to use our "ICD 10 by code" sheet which has every possible code, whether it was part of the 3.8M or not, since they could come up in future years. </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dauphine, David (CDPH-CHSI-PHPRB)</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="99">
   <si>
     <t>ICD10</t>
   </si>
@@ -66,30 +115,6 @@
     <t>ICD9</t>
   </si>
   <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>L4</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
     <t>regEx10</t>
   </si>
   <si>
@@ -105,66 +130,12 @@
     <t>name</t>
   </si>
   <si>
-    <t>list36</t>
-  </si>
-  <si>
     <t>nameOnly</t>
   </si>
   <si>
-    <t>Note: RegEx9 highlights indicate researcher-created aggregates</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
-    <t>http://www.who.int/healthinfo/global_burden_disease/GlobalDALYmethods_2000_2015.pdf</t>
-  </si>
-  <si>
-    <t>indicator for mutually exclusive and exhaustive list of high-level conditions</t>
-  </si>
-  <si>
-    <t>coded by Michael Samuel, California Department of Public Health</t>
-  </si>
-  <si>
-    <t>ICD10 codes lists per WHO 2017, above</t>
-  </si>
-  <si>
-    <t>columnName</t>
-  </si>
-  <si>
-    <t>meaning</t>
-  </si>
-  <si>
-    <t>reference</t>
-  </si>
-  <si>
-    <t>tbd</t>
-  </si>
-  <si>
-    <t>Categories primarily based on "WHO methods and data sources for global burden of disease estimates 2000-2015." January 2017</t>
-  </si>
-  <si>
-    <t>ICD9 codes lists, primarily based on "US County-Level Trends in Mortality Rates for Major Causes of Death, 1980-2014". JAMA 2016 (supplemental eTable3)</t>
-  </si>
-  <si>
-    <t>http://jamanetwork.com/journals/jama/fullarticle/2592499</t>
-  </si>
-  <si>
-    <t>sequential integer</t>
-  </si>
-  <si>
-    <t>regular expression representation of corresponding ICD10 codes lists</t>
-  </si>
-  <si>
-    <t>regular expression representation of corresponding ICD9 codes lists</t>
-  </si>
-  <si>
-    <t>coded primarily by Matt Beyers, Alameda County Public Health</t>
-  </si>
-  <si>
-    <t>coded primarily by Danielle Fujino, Intern, California Department of Public Health</t>
-  </si>
-  <si>
     <t>ALL CAUSES</t>
   </si>
   <si>
@@ -210,21 +181,6 @@
     <t>Changes from WHO 2017</t>
   </si>
   <si>
-    <t>I50</t>
-  </si>
-  <si>
-    <t>6.a. Congestive heart failure</t>
-  </si>
-  <si>
-    <t>6.b. Other OR UNSPECIFIED cardiovascular diseases</t>
-  </si>
-  <si>
-    <t>I00, I260-I270, I272-I280, I34-I37, I44-I49, I51, I700-I849, I851-I858, I86-I99</t>
-  </si>
-  <si>
-    <t>I00|I26|I27[0,2-9]|I28|I3[4-7]|I4[4-9]|I51|I7|I8[0-4,6-9]|I85[1-8]|I9</t>
-  </si>
-  <si>
     <t>ICD10_CM</t>
   </si>
   <si>
@@ -277,12 +233,183 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>U010-U019, U02, X85-Y09, Y871</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Y350-354, Y356-Y357, Y358-Y359,Y890</t>
+  </si>
+  <si>
+    <t>Y355,  Y36, Y891, Y38</t>
+  </si>
+  <si>
+    <t>Homicide excluding legal intervention</t>
+  </si>
+  <si>
+    <t>Legal intervention</t>
+  </si>
+  <si>
+    <t>Execution, War, Terrorism</t>
+  </si>
+  <si>
+    <t>Firearm ICD</t>
+  </si>
+  <si>
+    <t>ICD</t>
+  </si>
+  <si>
+    <t>U014, X93-X95</t>
+  </si>
+  <si>
+    <t>Y350</t>
+  </si>
+  <si>
+    <t>Y364</t>
+  </si>
+  <si>
+    <t>U031, U039, X60-X84, Y870</t>
+  </si>
+  <si>
+    <t>Suicide</t>
+  </si>
+  <si>
+    <t>X72-X74</t>
+  </si>
+  <si>
+    <t>causeName</t>
+  </si>
+  <si>
+    <t>causeNameShort</t>
+  </si>
+  <si>
+    <t>topLevCode</t>
+  </si>
+  <si>
+    <t>causeCode</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>1. Self-harm</t>
+  </si>
+  <si>
+    <t>Suicide/Self-harm</t>
+  </si>
+  <si>
+    <t>U03[1,9]|X[6-7]|X8[0-4]|Y870</t>
+  </si>
+  <si>
+    <t>X60-X84, Y870</t>
+  </si>
+  <si>
+    <t>X[6-7]|X8[0-4]|Y870</t>
+  </si>
+  <si>
+    <t>E950-E959</t>
+  </si>
+  <si>
+    <t>E95</t>
+  </si>
+  <si>
+    <t>Self-harm</t>
+  </si>
+  <si>
+    <t>2. Interpersonal violence</t>
+  </si>
+  <si>
+    <t>Homicide/Interpersonal violence</t>
+  </si>
+  <si>
+    <t>Homicide</t>
+  </si>
+  <si>
+    <t>X85-Y09, Y871</t>
+  </si>
+  <si>
+    <t>X8[5-9]|X9|Y0|Y871</t>
+  </si>
+  <si>
+    <t>E960-E969</t>
+  </si>
+  <si>
+    <t>E96</t>
+  </si>
+  <si>
+    <t>Interpersonal violence</t>
+  </si>
+  <si>
+    <t>Firearm: Suicide</t>
+  </si>
+  <si>
+    <t>Non-firearm: Suicide</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>U010-U019, U02, X85-Y09, Y871, Y350-354, Y356-Y357, Y358-Y359,Y890, Y355,  Y36, Y891, Y38</t>
+  </si>
+  <si>
+    <t>U01[0-9]|U02|X8[5-9]|X9|Y0|Y871|Y35[0-4]|Y35[6-9]|Y890|Y355|Y36|Y37|Y891|Y38</t>
+  </si>
+  <si>
+    <t>Firearm: Homicide</t>
+  </si>
+  <si>
+    <t>Non-firearm: Homicide</t>
+  </si>
+  <si>
+    <t>X9[3-5]|Y350|U014|Y364</t>
+  </si>
+  <si>
+    <t>Intentional Injuries (Suicide, Homicide)</t>
+  </si>
+  <si>
+    <t>Firearm: Intentional</t>
+  </si>
+  <si>
+    <t>Non-firearm: Intentional</t>
+  </si>
+  <si>
+    <t>U031, U039, X60-X84, Y870, U010-U019, U02, X85-Y09, Y871, Y350-354, Y356-Y357, Y358-Y359,Y890, Y355,  Y36, Y891, Y38</t>
+  </si>
+  <si>
+    <t>U03[1,9]|X[6-7]|X8[0-4]|Y870|U01[0-9]|U02|X8[5-9]|X9|Y0|Y871|Y35[0-4]|Y35[6-9]|Y890|Y355|Y36|Y37|Y891|Y38</t>
+  </si>
+  <si>
+    <t>X93-X95, Y350, U014, Y364</t>
+  </si>
+  <si>
+    <t>X72-X74, X93-X95, Y350, U014, Y364</t>
+  </si>
+  <si>
+    <t>X7[2-4]|X9[3-5]|Y350|U014|Y364</t>
+  </si>
+  <si>
+    <t>Firearm: All</t>
+  </si>
+  <si>
+    <t>Non-firearm: All</t>
+  </si>
+  <si>
+    <t>X7[2-4]|X9[3-5]|Y350|U014|Y364|W3[2-4]|Y2[2-4]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -315,27 +442,6 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -382,13 +488,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="3"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,24 +542,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -456,31 +589,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -509,9 +631,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -528,30 +649,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="28" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -569,7 +667,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -581,65 +679,191 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="28">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -666,9 +890,8 @@
     <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="28" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -726,7 +949,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -759,9 +982,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -794,6 +1034,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -969,135 +1226,710 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BB3A9E-6028-405A-9764-C6050D08C55C}">
+  <dimension ref="A1:S13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="49" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="40" customWidth="1"/>
+    <col min="3" max="3" width="12" style="33" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="48" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="49" customWidth="1"/>
+    <col min="6" max="6" width="2.140625" style="48" customWidth="1"/>
+    <col min="7" max="8" width="7.85546875" style="48" customWidth="1"/>
+    <col min="9" max="10" width="49" style="33"/>
+    <col min="11" max="11" width="48.85546875" style="33" customWidth="1"/>
+    <col min="12" max="12" width="46.28515625" style="33" customWidth="1"/>
+    <col min="13" max="13" width="49" style="50"/>
+    <col min="14" max="14" width="48.85546875" style="50" customWidth="1"/>
+    <col min="15" max="15" width="61.5703125" style="51" customWidth="1"/>
+    <col min="16" max="16" width="49" style="51"/>
+    <col min="17" max="17" width="51.5703125" style="40" customWidth="1"/>
+    <col min="18" max="18" width="53" style="40" customWidth="1"/>
+    <col min="19" max="19" width="97" style="40" customWidth="1"/>
+    <col min="20" max="16384" width="49" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="str">
+        <f>CONCATENATE(".",Q2)</f>
+        <v>.All CAUSES</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75" t="str">
+        <f t="shared" ref="G2:G4" si="0">CONCATENATE("c",D2,E2,F2)</f>
+        <v>cA</v>
+      </c>
+      <c r="H2" s="75" t="str">
+        <f>CONCATENATE(D2,E2,F2)</f>
+        <v>A</v>
+      </c>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="39"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="71" t="str">
+        <f t="shared" ref="A3:A4" si="1">IF(H3&lt;&gt;"",IF(F3&lt;&gt;"",CONCATENATE("....",D3,".",E3,".",F3,". - ",B3),IF(E3&lt;&gt;"",CONCATENATE("...",D3,".",E3,". - ",B3),CONCATENATE("..",D3,". - ",B3))),"")</f>
+        <v>...A.01. - Firearm: All</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="73"/>
+      <c r="D3" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>cA01</v>
+      </c>
+      <c r="H3" s="75" t="str">
+        <f t="shared" ref="H3:H4" si="2">CONCATENATE(D3,E3,F3)</f>
+        <v>A01</v>
+      </c>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="39"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v>...A.02. - Non-firearm: All</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="73"/>
+      <c r="D4" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>cA02</v>
+      </c>
+      <c r="H4" s="75" t="str">
+        <f t="shared" si="2"/>
+        <v>A02</v>
+      </c>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="39"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="57" t="str">
+        <f t="shared" ref="A5:A13" si="3">IF(H5&lt;&gt;"",IF(F5&lt;&gt;"",CONCATENATE("....",D5,".",E5,".",F5,". - ",B5),IF(E5&lt;&gt;"",CONCATENATE("...",D5,".",E5,". - ",B5),CONCATENATE("..",D5,". - ",B5))),"")</f>
+        <v>..S. - Suicide/Self-harm</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="59"/>
+      <c r="D5" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="60"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53" t="str">
+        <f t="shared" ref="G5:G13" si="4">CONCATENATE("c",D5,E5,F5)</f>
+        <v>cS</v>
+      </c>
+      <c r="H5" s="53" t="str">
+        <f t="shared" ref="H5:H13" si="5">CONCATENATE(D5,E5,F5)</f>
+        <v>S</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="R5" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="S5" s="35"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v>...S.01. - Firearm: Suicide</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>cS01</v>
+      </c>
+      <c r="H6" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>S01</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="35"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v>...S.02. - Non-firearm: Suicide</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>cS02</v>
+      </c>
+      <c r="H7" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>S02</v>
+      </c>
+      <c r="I7" s="58"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="35"/>
+    </row>
+    <row r="8" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="62" t="str">
+        <f t="shared" si="3"/>
+        <v>..H. - Homicide/Interpersonal violence</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="65"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>cH</v>
+      </c>
+      <c r="H8" s="52" t="str">
+        <f t="shared" si="5"/>
+        <v>H</v>
+      </c>
+      <c r="I8" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="R8" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="S8" s="35"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="62" t="str">
+        <f t="shared" si="3"/>
+        <v>...H.01. - Firearm: Homicide</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="64"/>
+      <c r="D9" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>cH01</v>
+      </c>
+      <c r="H9" s="52" t="str">
+        <f t="shared" si="5"/>
+        <v>H01</v>
+      </c>
+      <c r="I9" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="35"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="62" t="str">
+        <f t="shared" si="3"/>
+        <v>...H.02. - Non-firearm: Homicide</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="64"/>
+      <c r="D10" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>cH02</v>
+      </c>
+      <c r="H10" s="52" t="str">
+        <f t="shared" si="5"/>
+        <v>H02</v>
+      </c>
+      <c r="I10" s="63"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="35"/>
+    </row>
+    <row r="11" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>..I. - Intentional Injuries (Suicide, Homicide)</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="68"/>
+      <c r="D11" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="69"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54" t="str">
+        <f t="shared" si="4"/>
+        <v>cI</v>
+      </c>
+      <c r="H11" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v>I</v>
+      </c>
+      <c r="I11" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="35"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>...I.01. - Firearm: Intentional</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="68"/>
+      <c r="D12" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54" t="str">
+        <f t="shared" si="4"/>
+        <v>cI01</v>
+      </c>
+      <c r="H12" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v>I01</v>
+      </c>
+      <c r="I12" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="35"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>...I.02. - Non-firearm: Intentional</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="68"/>
+      <c r="D13" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54" t="str">
+        <f t="shared" si="4"/>
+        <v>cI02</v>
+      </c>
+      <c r="H13" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v>I02</v>
+      </c>
+      <c r="I13" s="67"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.85546875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="3" style="29" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" style="27" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" style="31" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="32" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="8" style="32" customWidth="1"/>
-    <col min="9" max="9" width="28.85546875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="10" style="30" customWidth="1"/>
-    <col min="11" max="11" width="29.85546875" style="15" customWidth="1"/>
-    <col min="12" max="14" width="71.28515625" style="15" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="37" customWidth="1"/>
-    <col min="16" max="16" width="35.140625" style="37" customWidth="1"/>
-    <col min="17" max="17" width="38.42578125" style="38" customWidth="1"/>
-    <col min="18" max="18" width="62.140625" style="39" customWidth="1"/>
-    <col min="19" max="19" width="40.7109375" style="39" customWidth="1"/>
-    <col min="20" max="20" width="50.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="50.85546875" style="30" customWidth="1"/>
-    <col min="22" max="22" width="50.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="50.85546875" style="29" customWidth="1"/>
-    <col min="24" max="24" width="50.42578125" style="29" customWidth="1"/>
-    <col min="25" max="16384" width="8.85546875" style="29"/>
+    <col min="1" max="1" width="50.85546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="3" style="20" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="23" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="8" style="23" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="10" style="21" customWidth="1"/>
+    <col min="11" max="11" width="29.85546875" style="6" customWidth="1"/>
+    <col min="12" max="14" width="71.28515625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="28" customWidth="1"/>
+    <col min="16" max="16" width="35.140625" style="28" customWidth="1"/>
+    <col min="17" max="17" width="38.42578125" style="29" customWidth="1"/>
+    <col min="18" max="18" width="62.140625" style="30" customWidth="1"/>
+    <col min="19" max="19" width="40.7109375" style="30" customWidth="1"/>
+    <col min="20" max="20" width="50.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="50.85546875" style="21" customWidth="1"/>
+    <col min="22" max="22" width="50.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="50.85546875" style="20" customWidth="1"/>
+    <col min="24" max="24" width="50.42578125" style="20" customWidth="1"/>
+    <col min="25" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>43</v>
+      <c r="A1" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="G1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>40</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q1" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="35" t="s">
-        <v>11</v>
+      <c r="S1" s="26" t="s">
+        <v>3</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="17" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="W1" s="28" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="str">
+      <c r="A2" s="18" t="str">
         <f>V2</f>
         <v>All CAUSES</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="21">
+      <c r="C2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="12">
         <v>0</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26" t="str">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17" t="str">
         <f>CONCATENATE(D2,E2,F2)</f>
         <v>0</v>
       </c>
@@ -1107,252 +1939,252 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
       <c r="T2" s="1" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="X2" s="5"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="str">
+      <c r="A3" s="18" t="str">
         <f t="shared" ref="A3:A7" si="0">IF(H3&lt;&gt;"",IF(F3&lt;&gt;"",CONCATENATE("...",D3,".",E3,".",F3,". - ",T3),IF(E3&lt;&gt;"",CONCATENATE("..",D3,".",E3,". - ",T3),CONCATENATE(D3,". - ",T3))),"")</f>
         <v>..S.1. - Firearm-Accident</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>68</v>
+      <c r="C3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="26" t="str">
+      <c r="G3" s="17" t="str">
         <f t="shared" ref="G3:G7" si="1">CONCATENATE("c",D3,E3,F3)</f>
         <v>cS1</v>
       </c>
-      <c r="H3" s="26" t="str">
+      <c r="H3" s="17" t="str">
         <f t="shared" ref="H3:H7" si="2">CONCATENATE(D3,E3,F3)</f>
         <v>S1</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="29"/>
+      <c r="K3" s="20"/>
       <c r="L3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="33"/>
+        <v>26</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="24"/>
       <c r="T3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U3" s="17"/>
+        <v>27</v>
+      </c>
+      <c r="U3" s="8"/>
       <c r="V3" s="2"/>
-      <c r="W3" s="28"/>
+      <c r="W3" s="19"/>
       <c r="X3" s="2"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="str">
+      <c r="A4" s="18" t="str">
         <f t="shared" si="0"/>
         <v>..S.2. - Firearm-Suicide</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>69</v>
+      <c r="C4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="26" t="str">
+      <c r="G4" s="17" t="str">
         <f t="shared" si="1"/>
         <v>cS2</v>
       </c>
-      <c r="H4" s="26" t="str">
+      <c r="H4" s="17" t="str">
         <f t="shared" si="2"/>
         <v>S2</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="29"/>
+      <c r="K4" s="20"/>
       <c r="L4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="24"/>
       <c r="T4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="U4" s="17"/>
+        <v>28</v>
+      </c>
+      <c r="U4" s="8"/>
       <c r="V4" s="2"/>
-      <c r="W4" s="28"/>
+      <c r="W4" s="19"/>
       <c r="X4" s="2"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="str">
+      <c r="A5" s="18" t="str">
         <f t="shared" si="0"/>
         <v>..S.3. - Firearm-Homicide</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>70</v>
+      <c r="C5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="26" t="str">
+      <c r="G5" s="17" t="str">
         <f t="shared" si="1"/>
         <v>cS3</v>
       </c>
-      <c r="H5" s="26" t="str">
+      <c r="H5" s="17" t="str">
         <f t="shared" si="2"/>
         <v>S3</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="29"/>
+      <c r="K5" s="20"/>
       <c r="L5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="33"/>
+        <v>31</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="24"/>
       <c r="T5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="U5" s="17"/>
+        <v>29</v>
+      </c>
+      <c r="U5" s="8"/>
       <c r="V5" s="2"/>
-      <c r="W5" s="28"/>
+      <c r="W5" s="19"/>
       <c r="X5" s="2"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="str">
+      <c r="A6" s="18" t="str">
         <f t="shared" si="0"/>
         <v>..S.4. - Firearm-Undermined</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>71</v>
+      <c r="C6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="26" t="str">
+      <c r="G6" s="17" t="str">
         <f t="shared" si="1"/>
         <v>cS4</v>
       </c>
-      <c r="H6" s="26" t="str">
+      <c r="H6" s="17" t="str">
         <f t="shared" si="2"/>
         <v>S4</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="29"/>
+      <c r="K6" s="20"/>
       <c r="L6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="33"/>
+        <v>32</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="24"/>
       <c r="T6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="U6" s="17"/>
+        <v>33</v>
+      </c>
+      <c r="U6" s="8"/>
       <c r="V6" s="2"/>
-      <c r="W6" s="28"/>
+      <c r="W6" s="19"/>
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="str">
+      <c r="A7" s="18" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">..S.5. - Firearm-War Terrosim </v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>72</v>
+      <c r="C7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="26" t="str">
+      <c r="G7" s="17" t="str">
         <f t="shared" si="1"/>
         <v>cS5</v>
       </c>
-      <c r="H7" s="26" t="str">
+      <c r="H7" s="17" t="str">
         <f t="shared" si="2"/>
         <v>S5</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="29"/>
+      <c r="K7" s="20"/>
       <c r="L7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="33"/>
+        <v>35</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="24"/>
       <c r="T7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="U7" s="17"/>
+        <v>34</v>
+      </c>
+      <c r="U7" s="8"/>
       <c r="V7" s="2"/>
-      <c r="W7" s="28"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X7"/>
+  <autoFilter ref="A1:X7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1364,249 +2196,71 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A3BB56-3342-4206-842F-189872DF797A}">
+  <dimension ref="B1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.7109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="64.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="58.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C11:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="57.140625" customWidth="1"/>
-    <col min="4" max="4" width="54.42578125" customWidth="1"/>
-    <col min="5" max="5" width="66.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="40" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="42" t="s">
+    </row>
+    <row r="4" spans="2:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="43" t="s">
+    </row>
+    <row r="7" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="43" t="s">
-        <v>54</v>
+      <c r="D7" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
